--- a/data/trans_camb/P0902-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.963156487345206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9.540864652559986</v>
+        <v>9.540864652559982</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.747051351765072</v>
@@ -655,7 +655,7 @@
         <v>-0.7454633167759683</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>9.477962988751951</v>
+        <v>9.477962988751939</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.081994815247306</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.936673795746458</v>
+        <v>-6.438262304653107</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.626125185645708</v>
+        <v>-6.350671331032479</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.773685054563308</v>
+        <v>4.9638538780537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.234426440902781</v>
+        <v>-2.227563566094588</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.365815934077447</v>
+        <v>-4.534241595377475</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.682100305310098</v>
+        <v>5.659194627694541</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.7508014128561</v>
+        <v>-3.699202783361524</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.269440843081209</v>
+        <v>-4.947487332846148</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.638359708290129</v>
+        <v>5.950559596051586</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9660295431470033</v>
+        <v>0.7462836266788982</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3396055956033552</v>
+        <v>0.4267407524915442</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.56515394484592</v>
+        <v>14.72209541437805</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.527265457914035</v>
+        <v>5.586563043229106</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.80681627107653</v>
+        <v>3.201023795281829</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.56536010704238</v>
+        <v>14.12671751170698</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.522040691730787</v>
+        <v>1.465008962202579</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1534316880018102</v>
+        <v>-0.1195619868478972</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.21759862608342</v>
+        <v>12.28766324359325</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1993360945033789</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.641828639880767</v>
+        <v>0.6418286398807668</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07782172701258261</v>
@@ -760,7 +760,7 @@
         <v>-0.0332063752318569</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.42219219692702</v>
+        <v>0.4221921969270195</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.05546253620274309</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3574699255929008</v>
+        <v>-0.3735608578189112</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3740292835083894</v>
+        <v>-0.3709184004346637</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2818660254481235</v>
+        <v>0.2740272288027032</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.09024473790825852</v>
+        <v>-0.0910341482080229</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1764491802955678</v>
+        <v>-0.1914094785275711</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1938090546264917</v>
+        <v>0.2307080819039434</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1782251990725344</v>
+        <v>-0.1750284496070275</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2479042835237627</v>
+        <v>-0.2326289207384802</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2740368205943854</v>
+        <v>0.2746706089426597</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.07420447925336683</v>
+        <v>0.05838436147861745</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05950929750222536</v>
+        <v>0.0325724929080487</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.136591932009019</v>
+        <v>1.116740670028785</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2763305197316853</v>
+        <v>0.2812099109954306</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1377559091952507</v>
+        <v>0.1542980598766979</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6674603082308282</v>
+        <v>0.697678823568757</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08381249919731121</v>
+        <v>0.0801850122522034</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.008145297478148251</v>
+        <v>-0.001375113824598544</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6701821510184275</v>
+        <v>0.678038030004161</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.59202062017708</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>9.969578803454612</v>
+        <v>9.969578803454615</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.460541433293203</v>
@@ -878,7 +878,7 @@
         <v>1.502561766664923</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.340985213660442</v>
+        <v>8.340985213660437</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08165745585952001</v>
+        <v>0.3763117542569029</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.411666179487402</v>
+        <v>-2.421164757312898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.337180445996712</v>
+        <v>3.21396511210017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.424306923782627</v>
+        <v>4.053094947750173</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5916287284914219</v>
+        <v>-0.6319370581743026</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.143073762574259</v>
+        <v>7.194275539018687</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.404673746729356</v>
+        <v>3.230515726299442</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4380869045354018</v>
+        <v>-0.4953086841137954</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.381618646932765</v>
+        <v>6.294247881804951</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.523980357766966</v>
+        <v>5.91485533968152</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.484448814330029</v>
+        <v>2.30739172799435</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.773397441921453</v>
+        <v>8.733305544812451</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.80501383462368</v>
+        <v>10.82155166164666</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.822280393787807</v>
+        <v>5.881969352595096</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.14024531238397</v>
+        <v>13.01972037675673</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.570733199508478</v>
+        <v>7.458492273118451</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.557300577084659</v>
+        <v>3.455023694082568</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.32147602076167</v>
+        <v>10.33431909401375</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2050576345609865</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.788704469050902</v>
+        <v>0.7887044690509022</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5319841847609804</v>
@@ -983,7 +983,7 @@
         <v>0.1463845858981392</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8126066385905003</v>
+        <v>0.8126066385904998</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.007774459726610705</v>
+        <v>0.04120475759912017</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2710709404340726</v>
+        <v>-0.2778665048940797</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3531688530842431</v>
+        <v>0.3591180781472916</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3010252954124257</v>
+        <v>0.2813032479214201</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04506018298524411</v>
+        <v>-0.04410893914854434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4998243450290751</v>
+        <v>0.4921833221067811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3040178463637291</v>
+        <v>0.2890049931584935</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0449395878097917</v>
+        <v>-0.04527226371125185</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5672451528339345</v>
+        <v>0.5617922154232599</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8020060861211908</v>
+        <v>0.8645504376407129</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3604326604336596</v>
+        <v>0.3372388066394985</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.295206477473333</v>
+        <v>1.28065744510129</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9633247874833017</v>
+        <v>0.9786086046269784</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5164852982676622</v>
+        <v>0.5295148873394692</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.197470999308665</v>
+        <v>1.207391523500621</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8015571855947297</v>
+        <v>0.8088486250466477</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3692374567958065</v>
+        <v>0.3735051182245395</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.107688636708938</v>
+        <v>1.119125219933694</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.09926578369451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.965348882564969</v>
+        <v>2.965348882564968</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.656326371761633</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.36616493098802</v>
+        <v>2.638136226248936</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.176045843323173</v>
+        <v>-1.070141838898134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8854345225018228</v>
+        <v>0.7023167113889325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.489237644129259</v>
+        <v>2.445413164655138</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.635514375603304</v>
+        <v>2.545200488518419</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.893411102330098</v>
+        <v>1.814274145455244</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.41380193069644</v>
+        <v>3.408662650049598</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.760385552746531</v>
+        <v>1.58917433942437</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.138766674670264</v>
+        <v>2.134787066784622</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.527976820597209</v>
+        <v>7.851492296952308</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.451742985226316</v>
+        <v>3.298095142395869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.113812628886449</v>
+        <v>5.210683718185964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.761659280761492</v>
+        <v>8.80727892739046</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.22916153710827</v>
+        <v>9.560935721118916</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.894805840295745</v>
+        <v>7.183529200827619</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.435778450205473</v>
+        <v>7.661847778935117</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.843406509617469</v>
+        <v>5.698761366075302</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.731586881783113</v>
+        <v>5.539390383447664</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1916957280539835</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5171130780282079</v>
+        <v>0.5171130780282077</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5445040757680997</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3449811464568991</v>
+        <v>0.3459319190307765</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1763558379547287</v>
+        <v>-0.1601813909270726</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1040846799634262</v>
+        <v>0.09793088744906679</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2034068812814088</v>
+        <v>0.1899295567524133</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2205487160479827</v>
+        <v>0.2165742931342051</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1638097391016663</v>
+        <v>0.1542972351540085</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3830248173888045</v>
+        <v>0.3888044375522895</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1927549401898685</v>
+        <v>0.1800113716272909</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2410770613236062</v>
+        <v>0.2443342645935669</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.552198492442783</v>
+        <v>1.560324106028879</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6899064441691501</v>
+        <v>0.6807804804237609</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.071530696660902</v>
+        <v>1.097042691977636</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9534879652995802</v>
+        <v>0.9642199101249109</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9954691628952987</v>
+        <v>1.030484215609042</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7924250688619098</v>
+        <v>0.7950033929787578</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.050872104426178</v>
+        <v>1.056177845643794</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8208198103036699</v>
+        <v>0.7871411471538546</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.802528120975063</v>
+        <v>0.7901542285555697</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.777494654518231</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.910485176996631</v>
+        <v>4.910485176996629</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.360889390533699</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.435137297047346</v>
+        <v>1.35519222207931</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.367582117954785</v>
+        <v>1.520221235409518</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.115977502728811</v>
+        <v>2.442986046162151</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4477996645936803</v>
+        <v>0.2598634069260625</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.780977538332551</v>
+        <v>-0.4835608298405568</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.028208939046537</v>
+        <v>-1.588294355552818</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.23133177643422</v>
+        <v>2.55652299970266</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.778776897330917</v>
+        <v>1.894855810737347</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.818212993599386</v>
+        <v>1.975300321342944</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.064603406948015</v>
+        <v>7.977130029980232</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.208069499271714</v>
+        <v>8.1169386310075</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.431427400366891</v>
+        <v>7.429729544601107</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.01440226500333</v>
+        <v>10.18344397376982</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.672663649962756</v>
+        <v>8.887775367980515</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.247333157240752</v>
+        <v>6.16960986970149</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.940551831528</v>
+        <v>8.135719865825699</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.524581250214397</v>
+        <v>7.31122994550773</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.306113225471107</v>
+        <v>6.528201495391977</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1768812782529924</v>
+        <v>0.2059966515448019</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1944159021972602</v>
+        <v>0.1953256378214036</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3275746071306337</v>
+        <v>0.3935988901393501</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.008454641474901809</v>
+        <v>-0.006775798820957371</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0800289463962312</v>
+        <v>-0.04656090571072414</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08376935809578613</v>
+        <v>-0.1235428893920147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2652022272801564</v>
+        <v>0.2947952846978575</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1818505547347364</v>
+        <v>0.2119976954195414</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.220649347947826</v>
+        <v>0.2126324914815527</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.737258346251643</v>
+        <v>2.836265830878049</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.655912336565267</v>
+        <v>2.80970957074598</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.578797866274101</v>
+        <v>2.592311560569562</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.252210716029003</v>
+        <v>1.272516347582655</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.078881357460702</v>
+        <v>1.162000985095207</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8048934269620864</v>
+        <v>0.7986365969621941</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.418409289920464</v>
+        <v>1.456764358352711</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.28176715336898</v>
+        <v>1.283934465329986</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.1677792755757</v>
+        <v>1.200852526654461</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.20378138164896</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.193697831183056</v>
+        <v>5.193697831183053</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.259856074726215</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.624321240790477</v>
+        <v>1.517108813624663</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2189460249134757</v>
+        <v>-0.3479019229303453</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.245010809292279</v>
+        <v>3.021703178282773</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.471302078308502</v>
+        <v>3.504843931419864</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.286239720079545</v>
+        <v>1.471638488619892</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.472521499420842</v>
+        <v>3.611670705317011</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.083692371886839</v>
+        <v>3.069851973187793</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8898328250839506</v>
+        <v>1.045738995557966</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.937991404170236</v>
+        <v>3.853775945381944</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.432053182759162</v>
+        <v>4.558045827166533</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.518501646326648</v>
+        <v>2.689775939485687</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.192003723521228</v>
+        <v>6.0955902911872</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.287848041662803</v>
+        <v>7.246166369442562</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.001772519612139</v>
+        <v>5.05276370677853</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.807934989153066</v>
+        <v>6.721207185679854</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.453956782475935</v>
+        <v>5.413315825821955</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.451539377906894</v>
+        <v>3.398015675092785</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.070176488599861</v>
+        <v>6.008081497624878</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.2217209032997519</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3594350666970839</v>
+        <v>0.3594350666970837</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3796336045126998</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1845373836115707</v>
+        <v>0.1808832136159888</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02737175877121141</v>
+        <v>-0.04183463836882996</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3713535785210828</v>
+        <v>0.3503552315466046</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2223052461384853</v>
+        <v>0.2306498517704088</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08109979591750228</v>
+        <v>0.09535207398292811</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.223743778917055</v>
+        <v>0.234986359900822</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2559106859490193</v>
+        <v>0.2627033046452494</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07378979848977311</v>
+        <v>0.08111347422156688</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3330135028799815</v>
+        <v>0.3225634257476224</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6278021025295381</v>
+        <v>0.6247965503683696</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.340816612644065</v>
+        <v>0.3746496386046502</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8444409886567459</v>
+        <v>0.8445507296431408</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.536878094228072</v>
+        <v>0.5333401733604444</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.365533944042107</v>
+        <v>0.3674795836103415</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5016581943376117</v>
+        <v>0.5050742320131546</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5092513674963896</v>
+        <v>0.506153620769862</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3225141068433072</v>
+        <v>0.3105098144257937</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5740850647574499</v>
+        <v>0.5654069651307142</v>
       </c>
     </row>
     <row r="34">
